--- a/exposan/bwaise/comparison/uncertainty/Bwaise_sanitation_inputs_uncertaintyA.xlsx
+++ b/exposan/bwaise/comparison/uncertainty/Bwaise_sanitation_inputs_uncertaintyA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/es/exposan/bwaise/comparison/uncertainty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{0BB7603F-069F-9A41-AA74-0E9A0FEA9C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5882838-6CDC-8543-9470-C4ED6950AFBE}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{0BB7603F-069F-9A41-AA74-0E9A0FEA9C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0DAB44F-AA5C-DF48-BDD2-FFA9B6B231CA}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="4280" windowWidth="28800" windowHeight="15880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17960" yWindow="9300" windowWidth="28800" windowHeight="15880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="7" r:id="rId1"/>
@@ -2983,7 +2983,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="6">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>211</v>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="C2" s="3">
         <f>summary!B21</f>
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>66</v>
